--- a/TAGS.xlsx
+++ b/TAGS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>GRAPHIC</t>
   </si>
@@ -103,14 +103,28 @@
   </si>
   <si>
     <t>PSYCH</t>
+  </si>
+  <si>
+    <t>CREAR</t>
+  </si>
+  <si>
+    <t>MARKUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,67 +470,20 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -523,28 +491,61 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
       <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
@@ -552,16 +553,10 @@
       <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -569,23 +564,17 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
@@ -593,73 +582,109 @@
       <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="T4" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
         <v>27</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T7" t="s">
         <v>27</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>25</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>19</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TAGS.xlsx
+++ b/TAGS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>GRAPHIC</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>MARKUP</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>RESPONSIVE FOOTER HEIGHT</t>
   </si>
 </sst>
 </file>
@@ -456,16 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
@@ -536,6 +544,12 @@
       <c r="U2" t="s">
         <v>28</v>
       </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -553,6 +567,12 @@
       <c r="Q3" t="s">
         <v>24</v>
       </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -582,6 +602,12 @@
       <c r="S4" t="s">
         <v>26</v>
       </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -623,6 +649,12 @@
       <c r="U5" t="s">
         <v>28</v>
       </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -631,6 +663,12 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -654,11 +692,23 @@
       <c r="U7" t="s">
         <v>28</v>
       </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -670,6 +720,12 @@
       <c r="S9" t="s">
         <v>26</v>
       </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -680,6 +736,134 @@
       </c>
       <c r="N10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>480</v>
+      </c>
+      <c r="D22">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>640</v>
+      </c>
+      <c r="E23">
+        <v>768</v>
+      </c>
+      <c r="G23">
+        <v>1024</v>
+      </c>
+      <c r="H23">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <v>640</v>
+      </c>
+      <c r="E26">
+        <v>768</v>
+      </c>
+      <c r="F26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
